--- a/Tables/Table S10.xlsx
+++ b/Tables/Table S10.xlsx
@@ -14005,6 +14005,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="26.5"/>
+    <col customWidth="1" min="8" max="8" width="32.38"/>
   </cols>
   <sheetData>
     <row r="1">
